--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ltbp3-Itgb5.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>4.4692555</v>
+        <v>1.927362</v>
       </c>
       <c r="H2">
-        <v>8.938511</v>
+        <v>3.854724</v>
       </c>
       <c r="I2">
-        <v>0.1144736349043841</v>
+        <v>0.07606847300028059</v>
       </c>
       <c r="J2">
-        <v>0.09293960953080409</v>
+        <v>0.05866251128801555</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N2">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O2">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P2">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q2">
-        <v>17.1654137315235</v>
+        <v>15.913788595464</v>
       </c>
       <c r="R2">
-        <v>68.66165492609399</v>
+        <v>63.655154381856</v>
       </c>
       <c r="S2">
-        <v>0.002903474456394216</v>
+        <v>0.005069054466695381</v>
       </c>
       <c r="T2">
-        <v>0.001616100151194118</v>
+        <v>0.002760593541698923</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>4.4692555</v>
+        <v>1.927362</v>
       </c>
       <c r="H3">
-        <v>8.938511</v>
+        <v>3.854724</v>
       </c>
       <c r="I3">
-        <v>0.1144736349043841</v>
+        <v>0.07606847300028059</v>
       </c>
       <c r="J3">
-        <v>0.09293960953080409</v>
+        <v>0.05866251128801555</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>62.010492</v>
       </c>
       <c r="O3">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P3">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q3">
-        <v>92.380244142902</v>
+        <v>39.838888627368</v>
       </c>
       <c r="R3">
-        <v>554.2814648574119</v>
+        <v>239.033331764208</v>
       </c>
       <c r="S3">
-        <v>0.01562582081268433</v>
+        <v>0.01268996977893129</v>
       </c>
       <c r="T3">
-        <v>0.01304620985503996</v>
+        <v>0.01036638553981948</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.4692555</v>
+        <v>1.927362</v>
       </c>
       <c r="H4">
-        <v>8.938511</v>
+        <v>3.854724</v>
       </c>
       <c r="I4">
-        <v>0.1144736349043841</v>
+        <v>0.07606847300028059</v>
       </c>
       <c r="J4">
-        <v>0.09293960953080409</v>
+        <v>0.05866251128801555</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N4">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O4">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P4">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q4">
-        <v>255.5526164522223</v>
+        <v>62.351273430328</v>
       </c>
       <c r="R4">
-        <v>1533.315698713334</v>
+        <v>374.107640581968</v>
       </c>
       <c r="S4">
-        <v>0.0432259021389682</v>
+        <v>0.01986088976802407</v>
       </c>
       <c r="T4">
-        <v>0.03608989231596869</v>
+        <v>0.01622428138804697</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.4692555</v>
+        <v>1.927362</v>
       </c>
       <c r="H5">
-        <v>8.938511</v>
+        <v>3.854724</v>
       </c>
       <c r="I5">
-        <v>0.1144736349043841</v>
+        <v>0.07606847300028059</v>
       </c>
       <c r="J5">
-        <v>0.09293960953080409</v>
+        <v>0.05866251128801555</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N5">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O5">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P5">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q5">
-        <v>38.83076663668225</v>
+        <v>24.179413520442</v>
       </c>
       <c r="R5">
-        <v>155.323066546729</v>
+        <v>96.717654081768</v>
       </c>
       <c r="S5">
-        <v>0.00656809913324502</v>
+        <v>0.007701922353223112</v>
       </c>
       <c r="T5">
-        <v>0.003655863401490876</v>
+        <v>0.004194446369962827</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>4.4692555</v>
+        <v>1.927362</v>
       </c>
       <c r="H6">
-        <v>8.938511</v>
+        <v>3.854724</v>
       </c>
       <c r="I6">
-        <v>0.1144736349043841</v>
+        <v>0.07606847300028059</v>
       </c>
       <c r="J6">
-        <v>0.09293960953080409</v>
+        <v>0.05866251128801555</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N6">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O6">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P6">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q6">
-        <v>24.47827922570533</v>
+        <v>17.50992636877</v>
       </c>
       <c r="R6">
-        <v>146.869675354232</v>
+        <v>105.05955821262</v>
       </c>
       <c r="S6">
-        <v>0.004140422105748609</v>
+        <v>0.00557747578074653</v>
       </c>
       <c r="T6">
-        <v>0.003456894605894521</v>
+        <v>0.004556217649802274</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>4.4692555</v>
+        <v>1.927362</v>
       </c>
       <c r="H7">
-        <v>8.938511</v>
+        <v>3.854724</v>
       </c>
       <c r="I7">
-        <v>0.1144736349043841</v>
+        <v>0.07606847300028059</v>
       </c>
       <c r="J7">
-        <v>0.09293960953080409</v>
+        <v>0.05866251128801555</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N7">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O7">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P7">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q7">
-        <v>248.3636774540481</v>
+        <v>79.01605862909199</v>
       </c>
       <c r="R7">
-        <v>1490.182064724289</v>
+        <v>474.096351774552</v>
       </c>
       <c r="S7">
-        <v>0.04200991625734375</v>
+        <v>0.0251691608526602</v>
       </c>
       <c r="T7">
-        <v>0.03507464920121592</v>
+        <v>0.02056058679868508</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>38.772031</v>
       </c>
       <c r="I8">
-        <v>0.3310301772629664</v>
+        <v>0.5100804784448972</v>
       </c>
       <c r="J8">
-        <v>0.4031384446309045</v>
+        <v>0.5900460593798126</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N8">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O8">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P8">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q8">
-        <v>49.63824163602899</v>
+        <v>106.7106066479773</v>
       </c>
       <c r="R8">
-        <v>297.829449816174</v>
+        <v>640.263639887864</v>
       </c>
       <c r="S8">
-        <v>0.008396148727010175</v>
+        <v>0.0339907668138111</v>
       </c>
       <c r="T8">
-        <v>0.007010058516592196</v>
+        <v>0.02776692141308961</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>38.772031</v>
       </c>
       <c r="I9">
-        <v>0.3310301772629664</v>
+        <v>0.5100804784448972</v>
       </c>
       <c r="J9">
-        <v>0.4031384446309045</v>
+        <v>0.5900460593798126</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>62.010492</v>
       </c>
       <c r="O9">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P9">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q9">
         <v>267.1414131276946</v>
@@ -1013,10 +1013,10 @@
         <v>2404.272718149252</v>
       </c>
       <c r="S9">
-        <v>0.04518610977822757</v>
+        <v>0.08509314833051378</v>
       </c>
       <c r="T9">
-        <v>0.05658974441404332</v>
+        <v>0.1042683786200601</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>38.772031</v>
       </c>
       <c r="I10">
-        <v>0.3310301772629664</v>
+        <v>0.5100804784448972</v>
       </c>
       <c r="J10">
-        <v>0.4031384446309045</v>
+        <v>0.5900460593798126</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N10">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O10">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P10">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q10">
-        <v>738.996608213357</v>
+        <v>418.0991957452991</v>
       </c>
       <c r="R10">
-        <v>6650.969473920213</v>
+        <v>3762.892761707692</v>
       </c>
       <c r="S10">
-        <v>0.1249988965526094</v>
+        <v>0.1331780664925102</v>
       </c>
       <c r="T10">
-        <v>0.1565449126438844</v>
+        <v>0.1631889445081101</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>38.772031</v>
       </c>
       <c r="I11">
-        <v>0.3310301772629664</v>
+        <v>0.5100804784448972</v>
       </c>
       <c r="J11">
-        <v>0.4031384446309045</v>
+        <v>0.5900460593798126</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N11">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O11">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P11">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q11">
-        <v>112.2892233983348</v>
+        <v>162.1361167191903</v>
       </c>
       <c r="R11">
-        <v>673.735340390009</v>
+        <v>972.816700315142</v>
       </c>
       <c r="S11">
-        <v>0.01899336054258172</v>
+        <v>0.05164557777915435</v>
       </c>
       <c r="T11">
-        <v>0.01585781447652407</v>
+        <v>0.04218906585375144</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>38.772031</v>
       </c>
       <c r="I12">
-        <v>0.3310301772629664</v>
+        <v>0.5100804784448972</v>
       </c>
       <c r="J12">
-        <v>0.4031384446309045</v>
+        <v>0.5900460593798126</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N12">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O12">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P12">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q12">
-        <v>70.78528709205244</v>
+        <v>117.4135784174895</v>
       </c>
       <c r="R12">
-        <v>637.0675838284719</v>
+        <v>1056.722205757405</v>
       </c>
       <c r="S12">
-        <v>0.01197310336790026</v>
+        <v>0.03740000821033337</v>
       </c>
       <c r="T12">
-        <v>0.01499475973386117</v>
+        <v>0.04582787560429252</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>38.772031</v>
       </c>
       <c r="I13">
-        <v>0.3310301772629664</v>
+        <v>0.5100804784448972</v>
       </c>
       <c r="J13">
-        <v>0.4031384446309045</v>
+        <v>0.5900460593798126</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N13">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O13">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P13">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q13">
-        <v>718.2079283318631</v>
+        <v>529.8456430196597</v>
       </c>
       <c r="R13">
-        <v>6463.871354986768</v>
+        <v>4768.610787176937</v>
       </c>
       <c r="S13">
-        <v>0.1214825582946374</v>
+        <v>0.1687729108185744</v>
       </c>
       <c r="T13">
-        <v>0.1521411548459994</v>
+        <v>0.2068048733805088</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.142192333333333</v>
+        <v>0.4752556666666667</v>
       </c>
       <c r="H14">
-        <v>3.426577</v>
+        <v>1.425767</v>
       </c>
       <c r="I14">
-        <v>0.02925563511788185</v>
+        <v>0.01875723027021581</v>
       </c>
       <c r="J14">
-        <v>0.03562838692118118</v>
+        <v>0.02169781097987302</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N14">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O14">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P14">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q14">
-        <v>4.386906043442999</v>
+        <v>3.924077681374667</v>
       </c>
       <c r="R14">
-        <v>26.321436260658</v>
+        <v>23.544466088248</v>
       </c>
       <c r="S14">
-        <v>0.0007420310304753535</v>
+        <v>0.001249945189299653</v>
       </c>
       <c r="T14">
-        <v>0.0006195317774714701</v>
+        <v>0.001021075224106174</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.142192333333333</v>
+        <v>0.4752556666666667</v>
       </c>
       <c r="H15">
-        <v>3.426577</v>
+        <v>1.425767</v>
       </c>
       <c r="I15">
-        <v>0.02925563511788185</v>
+        <v>0.01875723027021581</v>
       </c>
       <c r="J15">
-        <v>0.03562838692118118</v>
+        <v>0.02169781097987302</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>62.010492</v>
       </c>
       <c r="O15">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P15">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q15">
-        <v>23.60930284954267</v>
+        <v>9.823612571929333</v>
       </c>
       <c r="R15">
-        <v>212.483725645884</v>
+        <v>88.412513147364</v>
       </c>
       <c r="S15">
-        <v>0.003993437550009947</v>
+        <v>0.003129137156001749</v>
       </c>
       <c r="T15">
-        <v>0.005001262808364085</v>
+        <v>0.003834269434582554</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.142192333333333</v>
+        <v>0.4752556666666667</v>
       </c>
       <c r="H16">
-        <v>3.426577</v>
+        <v>1.425767</v>
       </c>
       <c r="I16">
-        <v>0.02925563511788185</v>
+        <v>0.01875723027021581</v>
       </c>
       <c r="J16">
-        <v>0.03562838692118118</v>
+        <v>0.02169781097987302</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N16">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O16">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P16">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q16">
-        <v>65.31070762792643</v>
+        <v>15.37479519760489</v>
       </c>
       <c r="R16">
-        <v>587.796368651338</v>
+        <v>138.373156778444</v>
       </c>
       <c r="S16">
-        <v>0.01104709588085676</v>
+        <v>0.004897367701187147</v>
       </c>
       <c r="T16">
-        <v>0.013835055407145</v>
+        <v>0.006000960121085599</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.142192333333333</v>
+        <v>0.4752556666666667</v>
       </c>
       <c r="H17">
-        <v>3.426577</v>
+        <v>1.425767</v>
       </c>
       <c r="I17">
-        <v>0.02925563511788185</v>
+        <v>0.01875723027021581</v>
       </c>
       <c r="J17">
-        <v>0.03562838692118118</v>
+        <v>0.02169781097987302</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N17">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O17">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P17">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q17">
-        <v>9.923846141683834</v>
+        <v>5.962244400515667</v>
       </c>
       <c r="R17">
-        <v>59.543076850103</v>
+        <v>35.773466403094</v>
       </c>
       <c r="S17">
-        <v>0.001678586617964843</v>
+        <v>0.001899166966348798</v>
       </c>
       <c r="T17">
-        <v>0.001401474747493224</v>
+        <v>0.001551421896240247</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1.142192333333333</v>
+        <v>0.4752556666666667</v>
       </c>
       <c r="H18">
-        <v>3.426577</v>
+        <v>1.425767</v>
       </c>
       <c r="I18">
-        <v>0.02925563511788185</v>
+        <v>0.01875723027021581</v>
       </c>
       <c r="J18">
-        <v>0.03562838692118118</v>
+        <v>0.02169781097987302</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N18">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O18">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P18">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q18">
-        <v>6.255830051513777</v>
+        <v>4.317658919120556</v>
       </c>
       <c r="R18">
-        <v>56.302470463624</v>
+        <v>38.858930272085</v>
       </c>
       <c r="S18">
-        <v>0.001058153508106645</v>
+        <v>0.001375313496113278</v>
       </c>
       <c r="T18">
-        <v>0.001325200086231614</v>
+        <v>0.001685232138515141</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1.142192333333333</v>
+        <v>0.4752556666666667</v>
       </c>
       <c r="H19">
-        <v>3.426577</v>
+        <v>1.425767</v>
       </c>
       <c r="I19">
-        <v>0.02925563511788185</v>
+        <v>0.01875723027021581</v>
       </c>
       <c r="J19">
-        <v>0.03562838692118118</v>
+        <v>0.02169781097987302</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N19">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O19">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P19">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q19">
-        <v>63.47345509033588</v>
+        <v>19.48405624949622</v>
       </c>
       <c r="R19">
-        <v>571.2610958130228</v>
+        <v>175.356506245466</v>
       </c>
       <c r="S19">
-        <v>0.01073633053046831</v>
+        <v>0.006206299761265187</v>
       </c>
       <c r="T19">
-        <v>0.01344586209447578</v>
+        <v>0.007604852165343311</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>16.4806375</v>
+        <v>8.3740565</v>
       </c>
       <c r="H20">
-        <v>32.961275</v>
+        <v>16.748113</v>
       </c>
       <c r="I20">
-        <v>0.4221281330115277</v>
+        <v>0.3305044359975315</v>
       </c>
       <c r="J20">
-        <v>0.3427201720887801</v>
+        <v>0.2548785251331769</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N20">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O20">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P20">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q20">
-        <v>63.29845345533749</v>
+        <v>69.142675235618</v>
       </c>
       <c r="R20">
-        <v>253.19381382135</v>
+        <v>276.570700942472</v>
       </c>
       <c r="S20">
-        <v>0.01070672956745092</v>
+        <v>0.02202417008620305</v>
       </c>
       <c r="T20">
-        <v>0.005959462544829994</v>
+        <v>0.01199430428311957</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>16.4806375</v>
+        <v>8.3740565</v>
       </c>
       <c r="H21">
-        <v>32.961275</v>
+        <v>16.748113</v>
       </c>
       <c r="I21">
-        <v>0.4221281330115277</v>
+        <v>0.3305044359975315</v>
       </c>
       <c r="J21">
-        <v>0.3427201720887801</v>
+        <v>0.2548785251331769</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>62.010492</v>
       </c>
       <c r="O21">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P21">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q21">
-        <v>340.65747994955</v>
+        <v>173.093121200266</v>
       </c>
       <c r="R21">
-        <v>2043.9448796973</v>
+        <v>1038.558727201596</v>
       </c>
       <c r="S21">
-        <v>0.0576211157437309</v>
+        <v>0.05513573678014983</v>
       </c>
       <c r="T21">
-        <v>0.04810865151250385</v>
+        <v>0.04504016277753289</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>16.4806375</v>
+        <v>8.3740565</v>
       </c>
       <c r="H22">
-        <v>32.961275</v>
+        <v>16.748113</v>
       </c>
       <c r="I22">
-        <v>0.4221281330115277</v>
+        <v>0.3305044359975315</v>
       </c>
       <c r="J22">
-        <v>0.3427201720887801</v>
+        <v>0.2548785251331769</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N22">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O22">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P22">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q22">
-        <v>942.3650167070583</v>
+        <v>270.9055623969527</v>
       </c>
       <c r="R22">
-        <v>5654.19010024235</v>
+        <v>1625.433374381716</v>
       </c>
       <c r="S22">
-        <v>0.1593980079596724</v>
+        <v>0.08629215116709031</v>
       </c>
       <c r="T22">
-        <v>0.1330835600411557</v>
+        <v>0.07049171303336051</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>16.4806375</v>
+        <v>8.3740565</v>
       </c>
       <c r="H23">
-        <v>32.961275</v>
+        <v>16.748113</v>
       </c>
       <c r="I23">
-        <v>0.4221281330115277</v>
+        <v>0.3305044359975315</v>
       </c>
       <c r="J23">
-        <v>0.3427201720887801</v>
+        <v>0.2548785251331769</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N23">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O23">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P23">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q23">
-        <v>143.1906922274312</v>
+        <v>105.0553943457665</v>
       </c>
       <c r="R23">
-        <v>572.762768909725</v>
+        <v>420.221577383066</v>
       </c>
       <c r="S23">
-        <v>0.02422024448570358</v>
+        <v>0.03346352835871171</v>
       </c>
       <c r="T23">
-        <v>0.01348120720990064</v>
+        <v>0.01822414828573388</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>16.4806375</v>
+        <v>8.3740565</v>
       </c>
       <c r="H24">
-        <v>32.961275</v>
+        <v>16.748113</v>
       </c>
       <c r="I24">
-        <v>0.4221281330115277</v>
+        <v>0.3305044359975315</v>
       </c>
       <c r="J24">
-        <v>0.3427201720887801</v>
+        <v>0.2548785251331769</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N24">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O24">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P24">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q24">
-        <v>90.26506686463333</v>
+        <v>76.07761942121917</v>
       </c>
       <c r="R24">
-        <v>541.5904011878</v>
+        <v>456.4657165273151</v>
       </c>
       <c r="S24">
-        <v>0.01526804538738712</v>
+        <v>0.02423317327795871</v>
       </c>
       <c r="T24">
-        <v>0.01274749829707721</v>
+        <v>0.01979598229379922</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>16.4806375</v>
+        <v>8.3740565</v>
       </c>
       <c r="H25">
-        <v>32.961275</v>
+        <v>16.748113</v>
       </c>
       <c r="I25">
-        <v>0.4221281330115277</v>
+        <v>0.3305044359975315</v>
       </c>
       <c r="J25">
-        <v>0.3427201720887801</v>
+        <v>0.2548785251331769</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N25">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O25">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P25">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q25">
-        <v>915.855389401454</v>
+        <v>343.3111887477956</v>
       </c>
       <c r="R25">
-        <v>5495.132336408724</v>
+        <v>2059.867132486774</v>
       </c>
       <c r="S25">
-        <v>0.1549139898675829</v>
+        <v>0.1093556763274178</v>
       </c>
       <c r="T25">
-        <v>0.1293397924833127</v>
+        <v>0.08933221445963083</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.266124</v>
+        <v>0.167436</v>
       </c>
       <c r="H26">
-        <v>6.798372000000001</v>
+        <v>0.502308</v>
       </c>
       <c r="I26">
-        <v>0.05804354918264631</v>
+        <v>0.006608307544340389</v>
       </c>
       <c r="J26">
-        <v>0.07068716916331497</v>
+        <v>0.007644295342561625</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N26">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O26">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P26">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q26">
-        <v>8.703676938348</v>
+        <v>1.382480876592</v>
       </c>
       <c r="R26">
-        <v>52.222061630088</v>
+        <v>8.294885259552</v>
       </c>
       <c r="S26">
-        <v>0.00147219892642564</v>
+        <v>0.0004403647076603191</v>
       </c>
       <c r="T26">
-        <v>0.001229158862932972</v>
+        <v>0.0003597321677878112</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>2.266124</v>
+        <v>0.167436</v>
       </c>
       <c r="H27">
-        <v>6.798372000000001</v>
+        <v>0.502308</v>
       </c>
       <c r="I27">
-        <v>0.05804354918264631</v>
+        <v>0.006608307544340389</v>
       </c>
       <c r="J27">
-        <v>0.07068716916331497</v>
+        <v>0.007644295342561625</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>62.010492</v>
       </c>
       <c r="O27">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P27">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q27">
-        <v>46.841154724336</v>
+        <v>3.460929579504</v>
       </c>
       <c r="R27">
-        <v>421.570392519024</v>
+        <v>31.148366215536</v>
       </c>
       <c r="S27">
-        <v>0.00792303048311368</v>
+        <v>0.001102417594569748</v>
       </c>
       <c r="T27">
-        <v>0.009922568511089568</v>
+        <v>0.001350840783344189</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>2.266124</v>
+        <v>0.167436</v>
       </c>
       <c r="H28">
-        <v>6.798372000000001</v>
+        <v>0.502308</v>
       </c>
       <c r="I28">
-        <v>0.05804354918264631</v>
+        <v>0.006608307544340389</v>
       </c>
       <c r="J28">
-        <v>0.07068716916331497</v>
+        <v>0.007644295342561625</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N28">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O28">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P28">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q28">
-        <v>129.5772679376186</v>
+        <v>5.416651266384</v>
       </c>
       <c r="R28">
-        <v>1166.195411438568</v>
+        <v>48.749861397456</v>
       </c>
       <c r="S28">
-        <v>0.02191757760521124</v>
+        <v>0.001725377972170708</v>
       </c>
       <c r="T28">
-        <v>0.02744892448013955</v>
+        <v>0.002114181543339315</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>2.266124</v>
+        <v>0.167436</v>
       </c>
       <c r="H29">
-        <v>6.798372000000001</v>
+        <v>0.502308</v>
       </c>
       <c r="I29">
-        <v>0.05804354918264631</v>
+        <v>0.006608307544340389</v>
       </c>
       <c r="J29">
-        <v>0.07068716916331497</v>
+        <v>0.007644295342561625</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N29">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O29">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P29">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q29">
-        <v>19.689035951018</v>
+        <v>2.100541715676</v>
       </c>
       <c r="R29">
-        <v>118.134215706108</v>
+        <v>12.603250294056</v>
       </c>
       <c r="S29">
-        <v>0.003330337028219966</v>
+        <v>0.0006690902233904502</v>
       </c>
       <c r="T29">
-        <v>0.002780543580974541</v>
+        <v>0.0005465771264565991</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>2.266124</v>
+        <v>0.167436</v>
       </c>
       <c r="H30">
-        <v>6.798372000000001</v>
+        <v>0.502308</v>
       </c>
       <c r="I30">
-        <v>0.05804354918264631</v>
+        <v>0.006608307544340389</v>
       </c>
       <c r="J30">
-        <v>0.07068716916331497</v>
+        <v>0.007644295342561625</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N30">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O30">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P30">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q30">
-        <v>12.41164574996266</v>
+        <v>1.52114238606</v>
       </c>
       <c r="R30">
-        <v>111.704811749664</v>
+        <v>13.69028147454</v>
       </c>
       <c r="S30">
-        <v>0.00209938991045991</v>
+        <v>0.0004845328665943793</v>
       </c>
       <c r="T30">
-        <v>0.002629213690699083</v>
+        <v>0.0005937194401562552</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>2.266124</v>
+        <v>0.167436</v>
       </c>
       <c r="H31">
-        <v>6.798372000000001</v>
+        <v>0.502308</v>
       </c>
       <c r="I31">
-        <v>0.05804354918264631</v>
+        <v>0.006608307544340389</v>
       </c>
       <c r="J31">
-        <v>0.07068716916331497</v>
+        <v>0.007644295342561625</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N31">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O31">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P31">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q31">
-        <v>125.9321357230253</v>
+        <v>6.864373580375999</v>
       </c>
       <c r="R31">
-        <v>1133.389221507228</v>
+        <v>61.77936222338399</v>
       </c>
       <c r="S31">
-        <v>0.02130101522921589</v>
+        <v>0.002186524179954785</v>
       </c>
       <c r="T31">
-        <v>0.02667676003747925</v>
+        <v>0.002679244281477456</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>1.759569333333333</v>
+        <v>1.469078</v>
       </c>
       <c r="H32">
-        <v>5.278708</v>
+        <v>4.407234</v>
       </c>
       <c r="I32">
-        <v>0.04506887052059354</v>
+        <v>0.05798107474273448</v>
       </c>
       <c r="J32">
-        <v>0.0548862176650151</v>
+        <v>0.06707079787656027</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>3.840777</v>
+        <v>8.256772</v>
       </c>
       <c r="N32">
-        <v>7.681553999999999</v>
+        <v>16.513544</v>
       </c>
       <c r="O32">
-        <v>0.02536369583109148</v>
+        <v>0.06663804683809918</v>
       </c>
       <c r="P32">
-        <v>0.0173887125129192</v>
+        <v>0.04705890493070143</v>
       </c>
       <c r="Q32">
-        <v>6.758113425372</v>
+        <v>12.129842096216</v>
       </c>
       <c r="R32">
-        <v>40.54868055223199</v>
+        <v>72.779052577296</v>
       </c>
       <c r="S32">
-        <v>0.00114311312333518</v>
+        <v>0.00386374557442967</v>
       </c>
       <c r="T32">
-        <v>0.0009544006598984551</v>
+        <v>0.003156278300899341</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>1.759569333333333</v>
+        <v>1.469078</v>
       </c>
       <c r="H33">
-        <v>5.278708</v>
+        <v>4.407234</v>
       </c>
       <c r="I33">
-        <v>0.04506887052059354</v>
+        <v>0.05798107474273448</v>
       </c>
       <c r="J33">
-        <v>0.0548862176650151</v>
+        <v>0.06707079787656027</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>62.010492</v>
       </c>
       <c r="O33">
-        <v>0.1365014819852278</v>
+        <v>0.1668229856393263</v>
       </c>
       <c r="P33">
-        <v>0.1403729789796018</v>
+        <v>0.1767122701059216</v>
       </c>
       <c r="Q33">
-        <v>36.37058668937067</v>
+        <v>30.366083188792</v>
       </c>
       <c r="R33">
-        <v>327.335280204336</v>
+        <v>273.294748699128</v>
       </c>
       <c r="S33">
-        <v>0.006151967617461364</v>
+        <v>0.009672575999159898</v>
       </c>
       <c r="T33">
-        <v>0.007704541878561014</v>
+        <v>0.01185223295058239</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>1.759569333333333</v>
+        <v>1.469078</v>
       </c>
       <c r="H34">
-        <v>5.278708</v>
+        <v>4.407234</v>
       </c>
       <c r="I34">
-        <v>0.04506887052059354</v>
+        <v>0.05798107474273448</v>
       </c>
       <c r="J34">
-        <v>0.0548862176650151</v>
+        <v>0.06707079787656027</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>57.18013133333333</v>
+        <v>32.35057733333333</v>
       </c>
       <c r="N34">
-        <v>171.540394</v>
+        <v>97.051732</v>
       </c>
       <c r="O34">
-        <v>0.3776057445460984</v>
+        <v>0.2610922631239201</v>
       </c>
       <c r="P34">
-        <v>0.3883155147537712</v>
+        <v>0.276569840462345</v>
       </c>
       <c r="Q34">
-        <v>100.6124055701058</v>
+        <v>47.52552144769867</v>
       </c>
       <c r="R34">
-        <v>905.5116501309519</v>
+        <v>427.729693029288</v>
       </c>
       <c r="S34">
-        <v>0.01701826440878043</v>
+        <v>0.01513841002293771</v>
       </c>
       <c r="T34">
-        <v>0.02131316986547787</v>
+        <v>0.01854975986840246</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>1.759569333333333</v>
+        <v>1.469078</v>
       </c>
       <c r="H35">
-        <v>5.278708</v>
+        <v>4.407234</v>
       </c>
       <c r="I35">
-        <v>0.04506887052059354</v>
+        <v>0.05798107474273448</v>
       </c>
       <c r="J35">
-        <v>0.0548862176650151</v>
+        <v>0.06707079787656027</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>8.6884195</v>
+        <v>12.545341</v>
       </c>
       <c r="N35">
-        <v>17.376839</v>
+        <v>25.090682</v>
       </c>
       <c r="O35">
-        <v>0.05737652288870819</v>
+        <v>0.1012498614661912</v>
       </c>
       <c r="P35">
-        <v>0.03933590231277193</v>
+        <v>0.07150130940302467</v>
       </c>
       <c r="Q35">
-        <v>15.28787650733533</v>
+        <v>18.430084465598</v>
       </c>
       <c r="R35">
-        <v>91.727259044012</v>
+        <v>110.580506793588</v>
       </c>
       <c r="S35">
-        <v>0.002585895080993061</v>
+        <v>0.00587057578536274</v>
       </c>
       <c r="T35">
-        <v>0.002158998896388571</v>
+        <v>0.004795649870879666</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>1.759569333333333</v>
+        <v>1.469078</v>
       </c>
       <c r="H36">
-        <v>5.278708</v>
+        <v>4.407234</v>
       </c>
       <c r="I36">
-        <v>0.04506887052059354</v>
+        <v>0.05798107474273448</v>
       </c>
       <c r="J36">
-        <v>0.0548862176650151</v>
+        <v>0.06707079787656027</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>5.477037333333333</v>
+        <v>9.084918333333334</v>
       </c>
       <c r="N36">
-        <v>16.431112</v>
+        <v>27.254755</v>
       </c>
       <c r="O36">
-        <v>0.03616922018076006</v>
+        <v>0.07332177919130776</v>
       </c>
       <c r="P36">
-        <v>0.03719506272240967</v>
+        <v>0.07766830211943357</v>
       </c>
       <c r="Q36">
-        <v>9.63722692925511</v>
+        <v>13.34645365529667</v>
       </c>
       <c r="R36">
-        <v>86.73504236329599</v>
+        <v>120.11808289767</v>
       </c>
       <c r="S36">
-        <v>0.001630105901157514</v>
+        <v>0.004251275559561489</v>
       </c>
       <c r="T36">
-        <v>0.002041496308646066</v>
+        <v>0.005209274992868147</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>1.759569333333333</v>
+        <v>1.469078</v>
       </c>
       <c r="H37">
-        <v>5.278708</v>
+        <v>4.407234</v>
       </c>
       <c r="I37">
-        <v>0.04506887052059354</v>
+        <v>0.05798107474273448</v>
       </c>
       <c r="J37">
-        <v>0.0548862176650151</v>
+        <v>0.06707079787656027</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>55.57159966666666</v>
+        <v>40.99699933333333</v>
       </c>
       <c r="N37">
-        <v>166.714799</v>
+        <v>122.990998</v>
       </c>
       <c r="O37">
-        <v>0.3669833345681142</v>
+        <v>0.3308750637411554</v>
       </c>
       <c r="P37">
-        <v>0.3773918287185262</v>
+        <v>0.3504893729785738</v>
       </c>
       <c r="Q37">
-        <v>97.78208257774354</v>
+        <v>60.22778978661465</v>
       </c>
       <c r="R37">
-        <v>880.0387431996918</v>
+        <v>542.0501080795319</v>
       </c>
       <c r="S37">
-        <v>0.016539524388866</v>
+        <v>0.01918449180128297</v>
       </c>
       <c r="T37">
-        <v>0.02071361005604313</v>
+        <v>0.02350760189292827</v>
       </c>
     </row>
   </sheetData>
